--- a/ArchivosExcel/relaciones.xlsx
+++ b/ArchivosExcel/relaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/904702f6d0479124/Desktop/CODIGO ESTADIAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/904702f6d0479124/Documentos/Sistema Integral de Gestión Liverpool/ArchivosExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAADFE83-B3FA-48B0-B6E4-1818BDAF48DC}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{150F4CFF-AF4B-40BB-8979-68E4886B2488}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -126,7 +117,7 @@
     <t>Yuviana</t>
   </si>
   <si>
-    <t>ygtiripitig@liverpool.com</t>
+    <t>ygtiripitig@liverpool.com.mx</t>
   </si>
 </sst>
 </file>
@@ -522,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58494B71-9843-4C04-979A-50D0244DB90B}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2597,6 +2588,8 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{B3993411-8498-429D-A808-678F8386BE9A}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{0B461813-A3E4-4D2B-BB70-BF2BFB06CC2F}"/>
     <hyperlink ref="A4:A24" r:id="rId3" display="figaspars@liverpool.com.mx" xr:uid="{C89E0445-341B-4FF6-B559-FE20666192A7}"/>
+    <hyperlink ref="A133" r:id="rId4" xr:uid="{7B8E99CB-8565-4A45-A167-DD2B5067D3E1}"/>
+    <hyperlink ref="A134:A147" r:id="rId5" display="ygtiripitig@liverpool.com.mx" xr:uid="{8B28E55D-00B8-402A-ADF1-369C6B96D57F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ArchivosExcel/relaciones.xlsx
+++ b/ArchivosExcel/relaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/904702f6d0479124/Documentos/Sistema Integral de Gestión Liverpool/ArchivosExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{150F4CFF-AF4B-40BB-8979-68E4886B2488}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B71D619-7B91-4CB5-9C3D-88BB7E52B53E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +159,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -196,6 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -513,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58494B71-9843-4C04-979A-50D0244DB90B}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,13 +1634,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>22</v>
+      <c r="A79" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="C79" s="8">
         <v>401</v>
       </c>
       <c r="D79" t="s">
@@ -1632,7 +1648,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B80" t="s">
@@ -1646,13 +1662,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>22</v>
+      <c r="A81" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8">
         <v>404</v>
       </c>
       <c r="D81" t="s">
@@ -1660,7 +1676,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B82" t="s">
@@ -1674,7 +1690,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B83" t="s">
@@ -1688,7 +1704,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B84" t="s">
@@ -1702,7 +1718,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B85" t="s">
@@ -1716,13 +1732,13 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>22</v>
+      <c r="A86" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8">
         <v>433</v>
       </c>
       <c r="D86" t="s">
@@ -1730,13 +1746,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>22</v>
+      <c r="A87" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="C87" s="8">
         <v>435</v>
       </c>
       <c r="D87" t="s">
@@ -1744,13 +1760,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>22</v>
+      <c r="A88" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="C88" s="8">
         <v>437</v>
       </c>
       <c r="D88" t="s">
@@ -1758,13 +1774,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>22</v>
+      <c r="A89" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="8">
         <v>443</v>
       </c>
       <c r="D89" t="s">
@@ -1772,13 +1788,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>22</v>
+      <c r="A90" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="C90" s="8">
         <v>444</v>
       </c>
       <c r="D90" t="s">
@@ -1786,13 +1802,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>22</v>
+      <c r="A91" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="C91" s="8">
         <v>447</v>
       </c>
       <c r="D91" t="s">
@@ -1800,13 +1816,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>22</v>
+      <c r="A92" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="8">
         <v>448</v>
       </c>
       <c r="D92" t="s">
@@ -1814,13 +1830,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>22</v>
+      <c r="A93" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="8">
         <v>450</v>
       </c>
       <c r="D93" t="s">
@@ -1828,13 +1844,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>22</v>
+      <c r="A94" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8">
         <v>456</v>
       </c>
       <c r="D94" t="s">
@@ -1842,7 +1858,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B95" t="s">
@@ -1856,13 +1872,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>22</v>
+      <c r="A96" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="C96" s="8">
         <v>466</v>
       </c>
       <c r="D96" t="s">
@@ -1870,13 +1886,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>22</v>
+      <c r="A97" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="C97" s="8">
         <v>469</v>
       </c>
       <c r="D97" t="s">
@@ -1884,13 +1900,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>22</v>
+      <c r="A98" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="C98" s="8">
         <v>478</v>
       </c>
       <c r="D98" t="s">
@@ -1898,13 +1914,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>22</v>
+      <c r="A99" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="C99" s="8">
         <v>479</v>
       </c>
       <c r="D99" t="s">
@@ -1912,13 +1928,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>22</v>
+      <c r="A100" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="C100" s="8">
         <v>486</v>
       </c>
       <c r="D100" t="s">
